--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3450.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3450.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.140775948708695</v>
+        <v>1.237585067749023</v>
       </c>
       <c r="B1">
-        <v>1.920563296692549</v>
+        <v>2.199332237243652</v>
       </c>
       <c r="C1">
-        <v>2.390723694258537</v>
+        <v>6.023508071899414</v>
       </c>
       <c r="D1">
-        <v>2.742645700679018</v>
+        <v>1.251180171966553</v>
       </c>
       <c r="E1">
-        <v>3.392728942625521</v>
+        <v>1.30712902545929</v>
       </c>
     </row>
   </sheetData>
